--- a/2025-10-12/12_oddspedia_fixtures.xlsx
+++ b/2025-10-12/12_oddspedia_fixtures.xlsx
@@ -464,6 +464,11 @@
           <t>Confidence %</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Odds</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -488,12 +493,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>45 of 46 Tips</t>
+          <t>46 of 47 Tips</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.01</t>
         </is>
       </c>
     </row>
@@ -528,16 +538,21 @@
           <t>85</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Denmark vs Greece</t>
+          <t>San Marino vs Cyprus</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,29 +562,34 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12th Oct 19:45</t>
+          <t>12th Oct 14:00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>19 of 28 Tips</t>
+          <t>20 of 21 Tips</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.16</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lithuania vs Poland</t>
+          <t>Denmark vs Greece</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,24 +604,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>19 of 22 Tips</t>
+          <t>19 of 28 Tips</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.70</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>San Marino vs Cyprus</t>
+          <t>Lithuania vs Poland</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,17 +636,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12th Oct 14:00</t>
+          <t>12th Oct 19:45</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>19 of 20 Tips</t>
+          <t>19 of 22 Tips</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.44</t>
         </is>
       </c>
     </row>
@@ -656,6 +686,11 @@
           <t>69</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -688,6 +723,11 @@
           <t>90</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -720,6 +760,11 @@
           <t>95</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -752,6 +797,11 @@
           <t>85</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -784,6 +834,11 @@
           <t>80</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -816,6 +871,11 @@
           <t>100</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -848,26 +908,31 @@
           <t>93</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Coquimbo Unido vs Colo Colo</t>
+          <t>Barcelona vs Olympiacos</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Asian Handicap: Coquimbo Unido 0</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>19th Oct 16:30</t>
+          <t>21st Oct 17:45</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -878,38 +943,43 @@
       <c r="F14" t="inlineStr">
         <is>
           <t>92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.18</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Barcelona vs Olympiacos</t>
+          <t>Wingate &amp; Finchley vs Ramsgate</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Ramsgate</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Europe</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>21st Oct 17:45</t>
+          <t>England</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11 of 12 Tips</t>
+          <t>10 of 12 Tips</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.08</t>
         </is>
       </c>
     </row>
